--- a/biology/Botanique/Melaleuca_uncinata/Melaleuca_uncinata.xlsx
+++ b/biology/Botanique/Melaleuca_uncinata/Melaleuca_uncinata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Melaleuca uncinata est une espèce d'arbustes de la famille des Myrtaceae originaire du sud de l'Australie.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Melaleuca uncinata est un petit arbuste au feuillage persistant qui mesure généralement moins de 2 m de large, mais peut occasionnellement former de petits arbres de 5 m de haut. On le trouve fréquemment en association avec des eucalyptus. Ses fleurs sont blanches, crème ou jaune, et attirent les oiseaux. Cette plante est également le seul hôte connu pour l'espèce rare et menacée Rhizanthella gardneri[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Melaleuca uncinata est un petit arbuste au feuillage persistant qui mesure généralement moins de 2 m de large, mais peut occasionnellement former de petits arbres de 5 m de haut. On le trouve fréquemment en association avec des eucalyptus. Ses fleurs sont blanches, crème ou jaune, et attirent les oiseaux. Cette plante est également le seul hôte connu pour l'espèce rare et menacée Rhizanthella gardneri.
 </t>
         </is>
       </c>
